--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Leich\Documents\GitHub\Improved Unlockables\Improved-Unlockables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890ABEF-22FE-41D3-8AA6-F5E1907A42F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109CE55-B147-4AC2-8AB1-F87F732755AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Achievement Name</t>
   </si>
@@ -204,13 +204,19 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,7 +322,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -322,32 +336,17 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -426,6 +425,27 @@
         </left>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -462,11 +482,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:B54" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C321B8E8-0265-46CB-984A-86660BB68D40}" name="Achievement Name" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4A463D9A-9910-4C6B-83BA-16664CDACDE1}" name="Unlocked" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C321B8E8-0265-46CB-984A-86660BB68D40}" name="Achievement Name" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4A463D9A-9910-4C6B-83BA-16664CDACDE1}" name="Unlocked" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,35 +789,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="11">
+        <f>COUNTIF(B2:B54, TRUE) / COUNTA(A2:A54) * 100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -805,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -821,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -829,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -837,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -845,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -853,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -861,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -869,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -877,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -885,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -893,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -901,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1223,6 +1252,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Leich\Documents\GitHub\Improved Unlockables\Improved-Unlockables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109CE55-B147-4AC2-8AB1-F87F732755AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8507E3-98E4-42E5-B090-C2F23CFF07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,14 +419,14 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF8EA9DB"/>
         </left>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="4" tableBorderDxfId="5">
   <autoFilter ref="A1:B54" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C321B8E8-0265-46CB-984A-86660BB68D40}" name="Achievement Name" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
@@ -789,21 +789,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -826,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -834,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -866,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -890,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -898,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -906,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -914,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -922,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -930,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -938,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -946,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -954,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -962,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -970,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -986,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -994,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -1265,8 +1266,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Leich\Documents\GitHub\Improved Unlockables\Improved-Unlockables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cprin\Documents\GitHub\Improved-Unlockables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8507E3-98E4-42E5-B090-C2F23CFF07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF98F9-BDF2-42BE-BD15-C48A6B6454AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$B$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$B$53</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Achievement Name</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>A Spy Game (Custom Achievement)</t>
-  </si>
-  <si>
-    <t>The Legacy Virus (Custom Achievement)</t>
   </si>
   <si>
     <t>Mutual Respect (Custom Achievement)</t>
@@ -348,9 +345,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
@@ -359,29 +353,7 @@
       </extLst>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -419,7 +391,29 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E1F2"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -427,6 +421,9 @@
           <color rgb="FF8EA9DB"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -482,11 +479,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:B54" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73806510-1F6C-4AC8-8B2C-27038AAB5244}" name="Table1" displayName="Table1" ref="A1:B54" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:B53" xr:uid="{FF66C5D9-ED34-8F49-9B1C-C38D8DEA47EB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C321B8E8-0265-46CB-984A-86660BB68D40}" name="Achievement Name" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4A463D9A-9910-4C6B-83BA-16664CDACDE1}" name="Unlocked" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C321B8E8-0265-46CB-984A-86660BB68D40}" name="Achievement Name" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4A463D9A-9910-4C6B-83BA-16664CDACDE1}" name="Unlocked" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -792,9 +789,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -809,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>COUNTIF(B2:B54, TRUE) / COUNTA(A2:A54) * 100</f>
+        <f>COUNTIF(B2:B53, TRUE) / COUNTA(A2:A53) * 100</f>
         <v>0</v>
       </c>
     </row>
@@ -1156,7 +1155,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="b">
@@ -1164,7 +1163,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="b">
@@ -1172,7 +1171,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="b">
@@ -1180,15 +1179,15 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="b">
@@ -1196,15 +1195,15 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="b">
@@ -1212,15 +1211,15 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="b">
@@ -1228,7 +1227,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="b">
@@ -1236,20 +1235,12 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="A54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
         <f>SUBTOTAL(103,Table1[Unlocked])</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
